--- a/biology/Médecine/Dermatologie/Dermatologie.xlsx
+++ b/biology/Médecine/Dermatologie/Dermatologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dermatologie est une spécialité de médecine qui s'occupe de la peau, des muqueuses et des phanères (ongles, cheveux, poils)[1],[2]. Elle est associée à la vénérologie (vénéréologie), c’est-à-dire l'étude des maladies vénériennes ou infections sexuellement transmissibles (IST). Le médecin spécialisé pratiquant la dermatologie s'appelle le dermatologue ou le dermatologiste[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dermatologie est une spécialité de médecine qui s'occupe de la peau, des muqueuses et des phanères (ongles, cheveux, poils),. Elle est associée à la vénérologie (vénéréologie), c’est-à-dire l'étude des maladies vénériennes ou infections sexuellement transmissibles (IST). Le médecin spécialisé pratiquant la dermatologie s'appelle le dermatologue ou le dermatologiste.
 La peau se compose de plusieurs couches superposées (de la plus profonde à la plus superficielle) incluant l'hypoderme, le derme (dermes réticulaire, profond et papillaire), la membrane basale et l'épiderme (Stratum germinativum, spinosum, granulosum, lucidum et corneum).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot est originaire des mots dermologie (en français, 1764) et, un petit peu plus tard, du mot, dermatologia (en latin, 1777)[4]. Le terme dérive du grec δέρματος / dérmatos, génitif de δέρμα / dérma, « peau »[5] (de δέρω / dérô, « écorcher, dépouiller, peler »[6]) + -logie, « étude de », un suffixe dérivé de λόγος / lógos, parmi d'autres signifiant « parole, citation, raison… »[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot est originaire des mots dermologie (en français, 1764) et, un petit peu plus tard, du mot, dermatologia (en latin, 1777). Le terme dérive du grec δέρματος / dérmatos, génitif de δέρμα / dérma, « peau » (de δέρω / dérô, « écorcher, dépouiller, peler ») + -logie, « étude de », un suffixe dérivé de λόγος / lógos, parmi d'autres signifiant « parole, citation, raison… ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des altérations visibles de la surface cutanée ont été perçues depuis l'aube de l'histoire, dont certaines ont été traitées et d'autres non. En 1801, la première grande école de dermatologie est fondée à l'Hôpital Saint-Louis à Paris, tandis que les premiers agendas (Willan, 1798–1808) et atlas (Jean-Louis Marc Alibert, 1806–1814) apparaissent durant la même période[4]. Depuis 1952, grâce aux travaux du docteur Norman Orentreich[réf. nécessaire], la transplantation capillaire, une application de dermatologie, est pratiquée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des altérations visibles de la surface cutanée ont été perçues depuis l'aube de l'histoire, dont certaines ont été traitées et d'autres non. En 1801, la première grande école de dermatologie est fondée à l'Hôpital Saint-Louis à Paris, tandis que les premiers agendas (Willan, 1798–1808) et atlas (Jean-Louis Marc Alibert, 1806–1814) apparaissent durant la même période. Depuis 1952, grâce aux travaux du docteur Norman Orentreich[réf. nécessaire], la transplantation capillaire, une application de dermatologie, est pratiquée.
 </t>
         </is>
       </c>
@@ -576,11 +592,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Symptômes et signes
-Les symptômes peuvent inclure le prurit, la douleur et l'hyperhidrose. Les signes physiques incluent : effet de la vitropression, signe de Nikolsky, fluorescence à la lampe de Wood et lignes de Blaschko.
+          <t>Symptômes et signes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes peuvent inclure le prurit, la douleur et l'hyperhidrose. Les signes physiques incluent : effet de la vitropression, signe de Nikolsky, fluorescence à la lampe de Wood et lignes de Blaschko.
 Les explorations dermatologiques incluent les analyses microscopiques tel que les examens directe de squames de la peau à la recherche germes (bactéries, champignons, virus) ou la biopsie cutanée.
-Lésions dermatologiques
-Pathologies dermatologiques</t>
+</t>
         </is>
       </c>
     </row>
